--- a/Common/Style/Resource/Template/Import_Schueler.xlsx
+++ b/Common/Style/Resource/Template/Import_Schueler.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20382"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\abteilung_software\Projekte\Schulsoftware\30 Projektrealisierung\30.2 Einstieg und Schulung\!Datenimport\Datenimport feste Spalten\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\kundwzwickau.de\kuw\abteilung_software\Projekte\Schulsoftware\30 Projektrealisierung\30.2 Einstieg und Schulung\!Datenimport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2289FFD-C84A-4E3D-AD85-103021FB0314}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C641847-D208-4C91-95B9-93005DDA9F18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Schüler" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="140">
   <si>
     <t>Nr</t>
   </si>
@@ -445,15 +445,15 @@
   </si>
   <si>
     <t>08056</t>
+  </si>
+  <si>
+    <t>01.01.2020</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0000"/>
-  </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -537,79 +537,49 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="49" fontId="4" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1"/>
-    <xf numFmtId="14" fontId="4" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -945,771 +915,772 @@
   <dimension ref="A1:CL20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="CD3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="CM2" sqref="CM2"/>
+      <selection pane="bottomRight" activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="16.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.85546875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="21" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21" style="1" customWidth="1"/>
-    <col min="12" max="12" width="6.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="18" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="17" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="18.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="20.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="9.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="10.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="26" style="1" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="23.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="21.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="18.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="20.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="17.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="24.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="25.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="22.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="17.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="18.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="23" style="1" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="17.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="11.5703125" style="1" customWidth="1"/>
-    <col min="54" max="54" width="14.42578125" style="1" customWidth="1"/>
-    <col min="55" max="55" width="20.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="9.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="10.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="26" style="1" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="23.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="21.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="18.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="20.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="17.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="24.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="25.5703125" style="1" customWidth="1"/>
-    <col min="71" max="71" width="22.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="11.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="17.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="18.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="23" style="1" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="78" max="78" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="79" max="79" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="80" max="80" width="25.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="81" max="81" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="82" max="82" width="34.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="83" max="83" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="84" max="84" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="85" max="85" width="23.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="86" max="86" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="87" max="87" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="88" max="88" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="89" max="89" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="90" max="90" width="19" style="1" bestFit="1" customWidth="1"/>
-    <col min="91" max="16384" width="11.5703125" style="1"/>
+    <col min="9" max="9" width="12.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="17" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="18.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="20.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="9.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="9.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="13" style="2" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="12" style="2" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="10.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="12" style="2" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="26" style="2" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="23.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="21.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="18.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="20.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="17.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="24.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="18.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="25.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="22.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="12.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="17.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="18.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="23" style="2" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="12.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="9.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="17.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="12.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="11.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="14.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="20.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="9.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="9.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="13" style="2" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="12" style="2" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="10.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="12" style="2" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="26" style="2" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="23.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="21.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="18.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="20.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="17.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="24.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="18.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="25.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="22.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="11.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="17.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="18.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="23" style="2" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="12.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="9.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="15.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="13.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="25.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="13.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="34.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="15.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="84" max="84" width="15.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="85" max="85" width="24.42578125" style="14" bestFit="1" customWidth="1"/>
+    <col min="86" max="86" width="13.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="87" max="87" width="15.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="88" max="88" width="15.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="89" max="89" width="11.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="90" max="90" width="19" style="2" bestFit="1" customWidth="1"/>
+    <col min="91" max="16384" width="16.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:90" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:90" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8"/>
-      <c r="B1" s="9">
+      <c r="B1" s="4">
         <v>1</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="H1" s="11">
+      <c r="H1" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="P1" s="4">
+        <v>7</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="T1" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="U1" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="V1" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="W1" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="X1" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y1" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z1" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="AA1" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="AB1" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="AC1" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="AD1" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="AE1" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="AF1" s="4">
+        <v>7</v>
+      </c>
+      <c r="AG1" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="AH1" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="AI1" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="AJ1" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="AK1" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="AL1" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="AM1" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="AN1" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="AO1" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="AP1" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="AQ1" s="4">
+        <v>18745</v>
+      </c>
+      <c r="AR1" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="AS1" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="AT1" s="4"/>
+      <c r="AU1" s="4">
+        <v>5417</v>
+      </c>
+      <c r="AV1" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="AW1" s="4"/>
+      <c r="AX1" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="AY1" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="AZ1" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="BA1" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="BB1" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="BC1" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="BD1" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="BE1" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="BF1" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="BG1" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="BH1" s="4">
+        <v>7</v>
+      </c>
+      <c r="BI1" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="BJ1" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="BK1" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="BL1" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="BM1" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="BN1" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="BO1" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="BP1" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="BQ1" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="BR1" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="BS1" s="4">
+        <v>18746</v>
+      </c>
+      <c r="BT1" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="BU1" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="BV1" s="4"/>
+      <c r="BW1" s="4">
+        <v>5418</v>
+      </c>
+      <c r="BX1" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="BY1" s="4"/>
+      <c r="BZ1" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="CA1" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="CB1" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="CC1" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="CD1" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="CE1" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="CF1" s="4"/>
+      <c r="CG1" s="10">
         <v>43831</v>
       </c>
-      <c r="I1" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="J1" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="K1" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="L1" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="M1" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="N1" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="O1" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="P1" s="10">
+      <c r="CH1" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="CI1" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="CJ1" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="CK1" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="CL1" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="2" spans="1:90" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="M2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="Q1" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="R1" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="S1" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="T1" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="U1" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="V1" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="W1" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="X1" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y1" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="Z1" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="AA1" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="AB1" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="AC1" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="AD1" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="AE1" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="AF1" s="10">
-        <v>7</v>
-      </c>
-      <c r="AG1" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="AH1" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="AI1" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="AJ1" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="AK1" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="AL1" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="AM1" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="AN1" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="AO1" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="AP1" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="AQ1" s="10">
-        <v>18745</v>
-      </c>
-      <c r="AR1" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="AS1" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="AT1" s="10"/>
-      <c r="AU1" s="10">
-        <v>5417</v>
-      </c>
-      <c r="AV1" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="AW1" s="10"/>
-      <c r="AX1" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="AY1" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="AZ1" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="BA1" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="BB1" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="BC1" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="BD1" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="BE1" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="BF1" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="BG1" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="BH1" s="10">
-        <v>7</v>
-      </c>
-      <c r="BI1" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="BJ1" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="BK1" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="BL1" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="BM1" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="BN1" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="BO1" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="BP1" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="BQ1" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="BR1" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="BS1" s="10">
-        <v>18746</v>
-      </c>
-      <c r="BT1" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="BU1" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="BV1" s="10"/>
-      <c r="BW1" s="10">
-        <v>5418</v>
-      </c>
-      <c r="BX1" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="BY1" s="10"/>
-      <c r="BZ1" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="CA1" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="CB1" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="CC1" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="CD1" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="CE1" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="CF1" s="10"/>
-      <c r="CG1" s="14">
-        <v>43831</v>
-      </c>
-      <c r="CH1" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="CI1" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="CJ1" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="CK1" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="CL1" s="10" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="2" spans="1:90" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="I2" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="J2" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="K2" s="15" t="s">
-        <v>134</v>
-      </c>
-      <c r="L2" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="M2" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="N2" s="15" t="s">
+      <c r="N2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="O2" s="15" t="s">
+      <c r="O2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="P2" s="15" t="s">
+      <c r="P2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="Q2" s="15" t="s">
+      <c r="Q2" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="R2" s="15" t="s">
+      <c r="R2" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="S2" s="15" t="s">
+      <c r="S2" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="T2" s="15" t="s">
+      <c r="T2" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="U2" s="15" t="s">
+      <c r="U2" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="V2" s="15" t="s">
+      <c r="V2" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="W2" s="18" t="s">
+      <c r="W2" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="X2" s="18" t="s">
+      <c r="X2" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="Y2" s="18" t="s">
+      <c r="Y2" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="Z2" s="18" t="s">
+      <c r="Z2" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="AA2" s="18" t="s">
+      <c r="AA2" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="AB2" s="19" t="s">
+      <c r="AB2" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="AC2" s="18" t="s">
+      <c r="AC2" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="AD2" s="18" t="s">
+      <c r="AD2" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="AE2" s="18" t="s">
+      <c r="AE2" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="AF2" s="18" t="s">
+      <c r="AF2" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="AG2" s="18" t="s">
+      <c r="AG2" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="AH2" s="18" t="s">
+      <c r="AH2" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="AI2" s="18" t="s">
+      <c r="AI2" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="AJ2" s="18" t="s">
+      <c r="AJ2" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="AK2" s="18" t="s">
+      <c r="AK2" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="AL2" s="18" t="s">
+      <c r="AL2" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="AM2" s="18" t="s">
+      <c r="AM2" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="AN2" s="18" t="s">
+      <c r="AN2" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="AO2" s="18" t="s">
+      <c r="AO2" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="AP2" s="18" t="s">
+      <c r="AP2" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="AQ2" s="18" t="s">
+      <c r="AQ2" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="AR2" s="18" t="s">
+      <c r="AR2" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="AS2" s="18" t="s">
+      <c r="AS2" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="AT2" s="18" t="s">
+      <c r="AT2" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="AU2" s="18" t="s">
+      <c r="AU2" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="AV2" s="18" t="s">
+      <c r="AV2" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="AW2" s="18" t="s">
+      <c r="AW2" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="AX2" s="18" t="s">
+      <c r="AX2" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="AY2" s="20" t="s">
+      <c r="AY2" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="AZ2" s="20" t="s">
+      <c r="AZ2" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="BA2" s="20" t="s">
+      <c r="BA2" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="BB2" s="20" t="s">
+      <c r="BB2" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="BC2" s="20" t="s">
+      <c r="BC2" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="BD2" s="21" t="s">
+      <c r="BD2" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="BE2" s="20" t="s">
+      <c r="BE2" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="BF2" s="20" t="s">
+      <c r="BF2" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="BG2" s="20" t="s">
+      <c r="BG2" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="BH2" s="20" t="s">
+      <c r="BH2" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="BI2" s="20" t="s">
+      <c r="BI2" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="BJ2" s="20" t="s">
+      <c r="BJ2" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="BK2" s="20" t="s">
+      <c r="BK2" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="BL2" s="20" t="s">
+      <c r="BL2" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="BM2" s="20" t="s">
+      <c r="BM2" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="BN2" s="20" t="s">
+      <c r="BN2" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="BO2" s="20" t="s">
+      <c r="BO2" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="BP2" s="20" t="s">
+      <c r="BP2" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="BQ2" s="20" t="s">
+      <c r="BQ2" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="BR2" s="20" t="s">
+      <c r="BR2" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="BS2" s="20" t="s">
+      <c r="BS2" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="BT2" s="20" t="s">
+      <c r="BT2" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="BU2" s="20" t="s">
+      <c r="BU2" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="BV2" s="20" t="s">
+      <c r="BV2" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="BW2" s="20" t="s">
+      <c r="BW2" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="BX2" s="20" t="s">
+      <c r="BX2" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="BY2" s="20" t="s">
+      <c r="BY2" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="BZ2" s="20" t="s">
+      <c r="BZ2" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="CA2" s="15" t="s">
+      <c r="CA2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="CB2" s="15" t="s">
+      <c r="CB2" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="CC2" s="15" t="s">
+      <c r="CC2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="CD2" s="15" t="s">
+      <c r="CD2" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="CE2" s="15" t="s">
+      <c r="CE2" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="CF2" s="15" t="s">
+      <c r="CF2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="CG2" s="22" t="s">
+      <c r="CG2" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="CH2" s="15" t="s">
+      <c r="CH2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="CI2" s="15" t="s">
+      <c r="CI2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="CJ2" s="15" t="s">
+      <c r="CJ2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="CK2" s="15" t="s">
+      <c r="CK2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="CL2" s="15" t="s">
+      <c r="CL2" s="5" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:90" x14ac:dyDescent="0.25">
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="L4" s="3"/>
+      <c r="L4" s="1"/>
     </row>
     <row r="5" spans="1:90" x14ac:dyDescent="0.25">
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:90" x14ac:dyDescent="0.25">
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="3" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="7" spans="1:90" x14ac:dyDescent="0.25">
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="AT7" s="6"/>
+      <c r="AT7" s="3"/>
     </row>
     <row r="8" spans="1:90" x14ac:dyDescent="0.25">
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="3" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="10" spans="1:90" x14ac:dyDescent="0.25">
-      <c r="Y10" s="6"/>
-      <c r="Z10" s="6"/>
-      <c r="AA10" s="6"/>
-      <c r="AB10" s="7"/>
-      <c r="AC10" s="6"/>
-      <c r="AD10" s="6"/>
-      <c r="AE10" s="6"/>
-      <c r="AW10" s="6"/>
+      <c r="Y10" s="3"/>
+      <c r="Z10" s="3"/>
+      <c r="AA10" s="3"/>
+      <c r="AB10" s="3"/>
+      <c r="AC10" s="3"/>
+      <c r="AD10" s="3"/>
+      <c r="AE10" s="3"/>
+      <c r="AW10" s="3"/>
     </row>
     <row r="11" spans="1:90" x14ac:dyDescent="0.25">
-      <c r="Y11" s="6"/>
-      <c r="Z11" s="6"/>
-      <c r="AA11" s="6"/>
-      <c r="AB11" s="7"/>
-      <c r="AC11" s="6"/>
-      <c r="AD11" s="6"/>
-      <c r="AE11" s="6"/>
+      <c r="Y11" s="3"/>
+      <c r="Z11" s="3"/>
+      <c r="AA11" s="3"/>
+      <c r="AB11" s="3"/>
+      <c r="AC11" s="3"/>
+      <c r="AD11" s="3"/>
+      <c r="AE11" s="3"/>
     </row>
     <row r="12" spans="1:90" x14ac:dyDescent="0.25">
-      <c r="Y12" s="6"/>
-      <c r="Z12" s="6"/>
-      <c r="AA12" s="6"/>
-      <c r="AB12" s="7"/>
-      <c r="AC12" s="6"/>
-      <c r="AD12" s="6"/>
-      <c r="AE12" s="6"/>
+      <c r="Y12" s="3"/>
+      <c r="Z12" s="3"/>
+      <c r="AA12" s="3"/>
+      <c r="AB12" s="3"/>
+      <c r="AC12" s="3"/>
+      <c r="AD12" s="3"/>
+      <c r="AE12" s="3"/>
     </row>
     <row r="13" spans="1:90" x14ac:dyDescent="0.25">
-      <c r="Y13" s="6"/>
-      <c r="Z13" s="6"/>
-      <c r="AA13" s="6"/>
-      <c r="AB13" s="7"/>
-      <c r="AC13" s="6"/>
-      <c r="AD13" s="6"/>
-      <c r="AE13" s="6"/>
+      <c r="Y13" s="3"/>
+      <c r="Z13" s="3"/>
+      <c r="AA13" s="3"/>
+      <c r="AB13" s="3"/>
+      <c r="AC13" s="3"/>
+      <c r="AD13" s="3"/>
+      <c r="AE13" s="3"/>
     </row>
     <row r="14" spans="1:90" x14ac:dyDescent="0.25">
-      <c r="O14" s="6"/>
-      <c r="Y14" s="6"/>
-      <c r="Z14" s="6"/>
-      <c r="AA14" s="6"/>
-      <c r="AB14" s="7"/>
-      <c r="AC14" s="6"/>
-      <c r="AD14" s="6"/>
-      <c r="AE14" s="6"/>
+      <c r="O14" s="3"/>
+      <c r="Y14" s="3"/>
+      <c r="Z14" s="3"/>
+      <c r="AA14" s="3"/>
+      <c r="AB14" s="3"/>
+      <c r="AC14" s="3"/>
+      <c r="AD14" s="3"/>
+      <c r="AE14" s="3"/>
     </row>
     <row r="15" spans="1:90" x14ac:dyDescent="0.25">
-      <c r="Y15" s="6"/>
-      <c r="Z15" s="6"/>
-      <c r="AA15" s="6"/>
-      <c r="AB15" s="7"/>
-      <c r="AC15" s="6"/>
-      <c r="AD15" s="6"/>
-      <c r="AE15" s="6"/>
+      <c r="Y15" s="3"/>
+      <c r="Z15" s="3"/>
+      <c r="AA15" s="3"/>
+      <c r="AB15" s="3"/>
+      <c r="AC15" s="3"/>
+      <c r="AD15" s="3"/>
+      <c r="AE15" s="3"/>
     </row>
     <row r="16" spans="1:90" x14ac:dyDescent="0.25">
-      <c r="Y16" s="6"/>
-      <c r="Z16" s="6"/>
-      <c r="AA16" s="6"/>
-      <c r="AB16" s="7"/>
-      <c r="AC16" s="6"/>
-      <c r="AD16" s="6"/>
-      <c r="AE16" s="6"/>
+      <c r="Y16" s="3"/>
+      <c r="Z16" s="3"/>
+      <c r="AA16" s="3"/>
+      <c r="AB16" s="3"/>
+      <c r="AC16" s="3"/>
+      <c r="AD16" s="3"/>
+      <c r="AE16" s="3"/>
     </row>
     <row r="17" spans="16:31" x14ac:dyDescent="0.25">
-      <c r="P17" s="6"/>
-      <c r="Y17" s="6"/>
-      <c r="Z17" s="6"/>
-      <c r="AA17" s="6"/>
-      <c r="AB17" s="7"/>
-      <c r="AC17" s="6"/>
-      <c r="AD17" s="6"/>
-      <c r="AE17" s="6"/>
+      <c r="P17" s="3"/>
+      <c r="Y17" s="3"/>
+      <c r="Z17" s="3"/>
+      <c r="AA17" s="3"/>
+      <c r="AB17" s="3"/>
+      <c r="AC17" s="3"/>
+      <c r="AD17" s="3"/>
+      <c r="AE17" s="3"/>
     </row>
     <row r="18" spans="16:31" x14ac:dyDescent="0.25">
-      <c r="Y18" s="6"/>
-      <c r="Z18" s="6"/>
-      <c r="AA18" s="6"/>
-      <c r="AB18" s="7"/>
-      <c r="AC18" s="6"/>
-      <c r="AD18" s="6"/>
-      <c r="AE18" s="6"/>
+      <c r="Y18" s="3"/>
+      <c r="Z18" s="3"/>
+      <c r="AA18" s="3"/>
+      <c r="AB18" s="3"/>
+      <c r="AC18" s="3"/>
+      <c r="AD18" s="3"/>
+      <c r="AE18" s="3"/>
     </row>
     <row r="19" spans="16:31" x14ac:dyDescent="0.25">
-      <c r="Y19" s="6"/>
-      <c r="Z19" s="6"/>
-      <c r="AA19" s="6"/>
-      <c r="AB19" s="7"/>
-      <c r="AC19" s="6"/>
-      <c r="AD19" s="6"/>
-      <c r="AE19" s="6"/>
+      <c r="Y19" s="3"/>
+      <c r="Z19" s="3"/>
+      <c r="AA19" s="3"/>
+      <c r="AB19" s="3"/>
+      <c r="AC19" s="3"/>
+      <c r="AD19" s="3"/>
+      <c r="AE19" s="3"/>
     </row>
     <row r="20" spans="16:31" x14ac:dyDescent="0.25">
-      <c r="Y20" s="6"/>
-      <c r="Z20" s="6"/>
-      <c r="AA20" s="6"/>
-      <c r="AB20" s="7"/>
-      <c r="AC20" s="6"/>
-      <c r="AD20" s="6"/>
-      <c r="AE20" s="6"/>
+      <c r="Y20" s="3"/>
+      <c r="Z20" s="3"/>
+      <c r="AA20" s="3"/>
+      <c r="AB20" s="3"/>
+      <c r="AC20" s="3"/>
+      <c r="AD20" s="3"/>
+      <c r="AE20" s="3"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="U2x7BkkhntWfROhpp7hiXXHqXvRTKHfC7LPmDZ3Lbky02ga/5+Bnn8Gyuc9Ei5u4D8eB19xgUm1m8WcX3KD8Cw==" saltValue="W55UeKAiIpHbQU8NlQPcQw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="kcto5CaXWg9s2JsALmOY3zaHb6leum/q0rC6Mk7Qr8lLzoGmyWhIMTFLd3WyLGzj06sq/KIboHcQVCcdPN6Riw==" saltValue="TJoCiD7DH4qU0FJi/K0kWg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <autoFilter ref="A2:CL2" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <sortState ref="A2:CJ376">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:CJ376">
       <sortCondition ref="A1:A376"/>
     </sortState>
   </autoFilter>

--- a/Common/Style/Resource/Template/Import_Schueler.xlsx
+++ b/Common/Style/Resource/Template/Import_Schueler.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\kundwzwickau.de\kuw\abteilung_software\Projekte\Schulsoftware\30 Projektrealisierung\30.2 Einstieg und Schulung\!Datenimport\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\PhpstormProjects\Common\Style\Resource\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C641847-D208-4C91-95B9-93005DDA9F18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{279FBC78-D811-40D2-84A1-25477F75FEC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Schüler" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Schüler!$A$2:$CL$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Schüler!$A$2:$CN$2</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="144">
   <si>
     <t>Nr</t>
   </si>
@@ -448,13 +448,25 @@
   </si>
   <si>
     <t>01.01.2020</t>
+  </si>
+  <si>
+    <t>Förderschule_Stufe</t>
+  </si>
+  <si>
+    <t>Schulaufnahme_Datum</t>
+  </si>
+  <si>
+    <t>01.08.2023</t>
+  </si>
+  <si>
+    <t>Unterstufe, Mittelstufe, Oberstufe, Werkstufe</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -486,6 +498,19 @@
     <font>
       <sz val="11"/>
       <color theme="1" tint="0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF172B4D"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -537,51 +562,59 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1"/>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -912,13 +945,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:CL20"/>
+  <dimension ref="A1:CP8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="5" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I5" sqref="I5"/>
+      <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1007,679 +1040,590 @@
     <col min="82" max="82" width="34.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="83" max="83" width="15.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="84" max="84" width="15.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="85" max="85" width="24.42578125" style="14" bestFit="1" customWidth="1"/>
+    <col min="85" max="85" width="24.42578125" style="7" bestFit="1" customWidth="1"/>
     <col min="86" max="86" width="13.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="87" max="87" width="15.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="88" max="88" width="15.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="89" max="89" width="11.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="90" max="90" width="19" style="2" bestFit="1" customWidth="1"/>
-    <col min="91" max="16384" width="16.140625" style="2"/>
+    <col min="89" max="89" width="23.5703125" style="2" customWidth="1"/>
+    <col min="90" max="90" width="41.7109375" style="2" customWidth="1"/>
+    <col min="91" max="91" width="11.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="92" max="92" width="19" style="2" bestFit="1" customWidth="1"/>
+    <col min="95" max="16384" width="16.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:90" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8"/>
-      <c r="B1" s="4">
+    <row r="1" spans="1:92" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4"/>
+      <c r="B1" s="3">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="N1" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="O1" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="P1" s="4">
+      <c r="P1" s="3">
         <v>7</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="Q1" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="R1" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="S1" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="T1" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="U1" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="V1" s="9" t="s">
+      <c r="V1" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="W1" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="X1" s="4" t="s">
+      <c r="X1" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="Y1" s="4" t="s">
+      <c r="Y1" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="Z1" s="4" t="s">
+      <c r="Z1" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="AA1" s="4" t="s">
+      <c r="AA1" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="AB1" s="4" t="s">
+      <c r="AB1" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="AC1" s="4" t="s">
+      <c r="AC1" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="AD1" s="4" t="s">
+      <c r="AD1" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="AE1" s="4" t="s">
+      <c r="AE1" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="AF1" s="4">
+      <c r="AF1" s="3">
         <v>7</v>
       </c>
-      <c r="AG1" s="4" t="s">
+      <c r="AG1" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="AH1" s="4" t="s">
+      <c r="AH1" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="AI1" s="4" t="s">
+      <c r="AI1" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="AJ1" s="4" t="s">
+      <c r="AJ1" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="AK1" s="4" t="s">
+      <c r="AK1" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="AL1" s="4" t="s">
+      <c r="AL1" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="AM1" s="4" t="s">
+      <c r="AM1" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="AN1" s="9" t="s">
+      <c r="AN1" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="AO1" s="9" t="s">
+      <c r="AO1" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="AP1" s="4" t="s">
+      <c r="AP1" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="AQ1" s="4">
+      <c r="AQ1" s="3">
         <v>18745</v>
       </c>
-      <c r="AR1" s="4" t="s">
+      <c r="AR1" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="AS1" s="4" t="s">
+      <c r="AS1" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="AT1" s="4"/>
-      <c r="AU1" s="4">
+      <c r="AT1" s="3"/>
+      <c r="AU1" s="3">
         <v>5417</v>
       </c>
-      <c r="AV1" s="4" t="s">
+      <c r="AV1" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="AW1" s="4"/>
-      <c r="AX1" s="4" t="s">
+      <c r="AW1" s="3"/>
+      <c r="AX1" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="AY1" s="4" t="s">
+      <c r="AY1" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="AZ1" s="4" t="s">
+      <c r="AZ1" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="BA1" s="4" t="s">
+      <c r="BA1" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="BB1" s="4" t="s">
+      <c r="BB1" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="BC1" s="4" t="s">
+      <c r="BC1" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="BD1" s="4" t="s">
+      <c r="BD1" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="BE1" s="4" t="s">
+      <c r="BE1" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="BF1" s="4" t="s">
+      <c r="BF1" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="BG1" s="4" t="s">
+      <c r="BG1" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="BH1" s="4">
+      <c r="BH1" s="3">
         <v>7</v>
       </c>
-      <c r="BI1" s="4" t="s">
+      <c r="BI1" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="BJ1" s="4" t="s">
+      <c r="BJ1" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="BK1" s="4" t="s">
+      <c r="BK1" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="BL1" s="4" t="s">
+      <c r="BL1" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="BM1" s="4" t="s">
+      <c r="BM1" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="BN1" s="4" t="s">
+      <c r="BN1" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="BO1" s="4" t="s">
+      <c r="BO1" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="BP1" s="9" t="s">
+      <c r="BP1" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="BQ1" s="9" t="s">
+      <c r="BQ1" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="BR1" s="4" t="s">
+      <c r="BR1" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="BS1" s="4">
+      <c r="BS1" s="3">
         <v>18746</v>
       </c>
-      <c r="BT1" s="4" t="s">
+      <c r="BT1" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="BU1" s="4" t="s">
+      <c r="BU1" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="BV1" s="4"/>
-      <c r="BW1" s="4">
+      <c r="BV1" s="3"/>
+      <c r="BW1" s="3">
         <v>5418</v>
       </c>
-      <c r="BX1" s="4" t="s">
+      <c r="BX1" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="BY1" s="4"/>
-      <c r="BZ1" s="4" t="s">
+      <c r="BY1" s="3"/>
+      <c r="BZ1" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="CA1" s="4" t="s">
+      <c r="CA1" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="CB1" s="4" t="s">
+      <c r="CB1" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="CC1" s="4" t="s">
+      <c r="CC1" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="CD1" s="4" t="s">
+      <c r="CD1" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="CE1" s="4" t="s">
+      <c r="CE1" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="CF1" s="4"/>
-      <c r="CG1" s="10">
+      <c r="CF1" s="13"/>
+      <c r="CG1" s="14">
         <v>43831</v>
       </c>
-      <c r="CH1" s="4" t="s">
+      <c r="CH1" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="CI1" s="4" t="s">
+      <c r="CI1" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="CJ1" s="4" t="s">
+      <c r="CJ1" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="CK1" s="4" t="s">
+      <c r="CK1" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="CL1" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="CM1" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="CL1" s="4" t="s">
+      <c r="CN1" s="13" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="2" spans="1:90" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:92" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="K2" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="L2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="M2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="N2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="O2" s="5" t="s">
+      <c r="O2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="P2" s="5" t="s">
+      <c r="P2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="Q2" s="5" t="s">
+      <c r="Q2" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="R2" s="5" t="s">
+      <c r="R2" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="S2" s="5" t="s">
+      <c r="S2" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="T2" s="5" t="s">
+      <c r="T2" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="U2" s="5" t="s">
+      <c r="U2" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="V2" s="5" t="s">
+      <c r="V2" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="W2" s="6" t="s">
+      <c r="W2" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="X2" s="6" t="s">
+      <c r="X2" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="Y2" s="6" t="s">
+      <c r="Y2" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="Z2" s="6" t="s">
+      <c r="Z2" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="AA2" s="6" t="s">
+      <c r="AA2" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="AB2" s="6" t="s">
+      <c r="AB2" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="AC2" s="6" t="s">
+      <c r="AC2" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="AD2" s="6" t="s">
+      <c r="AD2" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="AE2" s="6" t="s">
+      <c r="AE2" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="AF2" s="6" t="s">
+      <c r="AF2" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="AG2" s="6" t="s">
+      <c r="AG2" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="AH2" s="6" t="s">
+      <c r="AH2" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="AI2" s="6" t="s">
+      <c r="AI2" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="AJ2" s="6" t="s">
+      <c r="AJ2" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="AK2" s="6" t="s">
+      <c r="AK2" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="AL2" s="6" t="s">
+      <c r="AL2" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="AM2" s="6" t="s">
+      <c r="AM2" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="AN2" s="6" t="s">
+      <c r="AN2" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="AO2" s="6" t="s">
+      <c r="AO2" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="AP2" s="6" t="s">
+      <c r="AP2" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="AQ2" s="6" t="s">
+      <c r="AQ2" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="AR2" s="6" t="s">
+      <c r="AR2" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="AS2" s="6" t="s">
+      <c r="AS2" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="AT2" s="6" t="s">
+      <c r="AT2" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="AU2" s="6" t="s">
+      <c r="AU2" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="AV2" s="6" t="s">
+      <c r="AV2" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="AW2" s="6" t="s">
+      <c r="AW2" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="AX2" s="6" t="s">
+      <c r="AX2" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="AY2" s="7" t="s">
+      <c r="AY2" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="AZ2" s="7" t="s">
+      <c r="AZ2" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="BA2" s="7" t="s">
+      <c r="BA2" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="BB2" s="7" t="s">
+      <c r="BB2" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="BC2" s="7" t="s">
+      <c r="BC2" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="BD2" s="7" t="s">
+      <c r="BD2" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="BE2" s="7" t="s">
+      <c r="BE2" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="BF2" s="7" t="s">
+      <c r="BF2" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="BG2" s="7" t="s">
+      <c r="BG2" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="BH2" s="7" t="s">
+      <c r="BH2" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="BI2" s="7" t="s">
+      <c r="BI2" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="BJ2" s="7" t="s">
+      <c r="BJ2" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="BK2" s="7" t="s">
+      <c r="BK2" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="BL2" s="7" t="s">
+      <c r="BL2" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="BM2" s="7" t="s">
+      <c r="BM2" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="BN2" s="7" t="s">
+      <c r="BN2" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="BO2" s="7" t="s">
+      <c r="BO2" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="BP2" s="7" t="s">
+      <c r="BP2" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="BQ2" s="7" t="s">
+      <c r="BQ2" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="BR2" s="7" t="s">
+      <c r="BR2" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="BS2" s="7" t="s">
+      <c r="BS2" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="BT2" s="7" t="s">
+      <c r="BT2" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="BU2" s="7" t="s">
+      <c r="BU2" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="BV2" s="7" t="s">
+      <c r="BV2" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="BW2" s="7" t="s">
+      <c r="BW2" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="BX2" s="7" t="s">
+      <c r="BX2" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="BY2" s="7" t="s">
+      <c r="BY2" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="BZ2" s="7" t="s">
+      <c r="BZ2" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="CA2" s="5" t="s">
+      <c r="CA2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="CB2" s="5" t="s">
+      <c r="CB2" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="CC2" s="5" t="s">
+      <c r="CC2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="CD2" s="5" t="s">
+      <c r="CD2" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="CE2" s="5" t="s">
+      <c r="CE2" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="CF2" s="5" t="s">
+      <c r="CF2" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="CG2" s="12" t="s">
+      <c r="CG2" s="16" t="s">
         <v>137</v>
       </c>
-      <c r="CH2" s="5" t="s">
+      <c r="CH2" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="CI2" s="5" t="s">
+      <c r="CI2" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="CJ2" s="5" t="s">
+      <c r="CJ2" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="CK2" s="5" t="s">
+      <c r="CK2" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="CL2" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="CM2" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="CL2" s="5" t="s">
+      <c r="CN2" s="15" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:92" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>102</v>
       </c>
       <c r="L4" s="1"/>
     </row>
-    <row r="5" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:92" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="6" spans="1:90" x14ac:dyDescent="0.25">
-      <c r="B6" s="3" t="s">
+    <row r="6" spans="1:92" x14ac:dyDescent="0.25">
+      <c r="B6" s="2" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="7" spans="1:90" x14ac:dyDescent="0.25">
-      <c r="B7" s="3" t="s">
+    <row r="7" spans="1:92" x14ac:dyDescent="0.25">
+      <c r="B7" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="AT7" s="3"/>
     </row>
-    <row r="8" spans="1:90" x14ac:dyDescent="0.25">
-      <c r="B8" s="3" t="s">
+    <row r="8" spans="1:92" x14ac:dyDescent="0.25">
+      <c r="B8" s="2" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="10" spans="1:90" x14ac:dyDescent="0.25">
-      <c r="Y10" s="3"/>
-      <c r="Z10" s="3"/>
-      <c r="AA10" s="3"/>
-      <c r="AB10" s="3"/>
-      <c r="AC10" s="3"/>
-      <c r="AD10" s="3"/>
-      <c r="AE10" s="3"/>
-      <c r="AW10" s="3"/>
-    </row>
-    <row r="11" spans="1:90" x14ac:dyDescent="0.25">
-      <c r="Y11" s="3"/>
-      <c r="Z11" s="3"/>
-      <c r="AA11" s="3"/>
-      <c r="AB11" s="3"/>
-      <c r="AC11" s="3"/>
-      <c r="AD11" s="3"/>
-      <c r="AE11" s="3"/>
-    </row>
-    <row r="12" spans="1:90" x14ac:dyDescent="0.25">
-      <c r="Y12" s="3"/>
-      <c r="Z12" s="3"/>
-      <c r="AA12" s="3"/>
-      <c r="AB12" s="3"/>
-      <c r="AC12" s="3"/>
-      <c r="AD12" s="3"/>
-      <c r="AE12" s="3"/>
-    </row>
-    <row r="13" spans="1:90" x14ac:dyDescent="0.25">
-      <c r="Y13" s="3"/>
-      <c r="Z13" s="3"/>
-      <c r="AA13" s="3"/>
-      <c r="AB13" s="3"/>
-      <c r="AC13" s="3"/>
-      <c r="AD13" s="3"/>
-      <c r="AE13" s="3"/>
-    </row>
-    <row r="14" spans="1:90" x14ac:dyDescent="0.25">
-      <c r="O14" s="3"/>
-      <c r="Y14" s="3"/>
-      <c r="Z14" s="3"/>
-      <c r="AA14" s="3"/>
-      <c r="AB14" s="3"/>
-      <c r="AC14" s="3"/>
-      <c r="AD14" s="3"/>
-      <c r="AE14" s="3"/>
-    </row>
-    <row r="15" spans="1:90" x14ac:dyDescent="0.25">
-      <c r="Y15" s="3"/>
-      <c r="Z15" s="3"/>
-      <c r="AA15" s="3"/>
-      <c r="AB15" s="3"/>
-      <c r="AC15" s="3"/>
-      <c r="AD15" s="3"/>
-      <c r="AE15" s="3"/>
-    </row>
-    <row r="16" spans="1:90" x14ac:dyDescent="0.25">
-      <c r="Y16" s="3"/>
-      <c r="Z16" s="3"/>
-      <c r="AA16" s="3"/>
-      <c r="AB16" s="3"/>
-      <c r="AC16" s="3"/>
-      <c r="AD16" s="3"/>
-      <c r="AE16" s="3"/>
-    </row>
-    <row r="17" spans="16:31" x14ac:dyDescent="0.25">
-      <c r="P17" s="3"/>
-      <c r="Y17" s="3"/>
-      <c r="Z17" s="3"/>
-      <c r="AA17" s="3"/>
-      <c r="AB17" s="3"/>
-      <c r="AC17" s="3"/>
-      <c r="AD17" s="3"/>
-      <c r="AE17" s="3"/>
-    </row>
-    <row r="18" spans="16:31" x14ac:dyDescent="0.25">
-      <c r="Y18" s="3"/>
-      <c r="Z18" s="3"/>
-      <c r="AA18" s="3"/>
-      <c r="AB18" s="3"/>
-      <c r="AC18" s="3"/>
-      <c r="AD18" s="3"/>
-      <c r="AE18" s="3"/>
-    </row>
-    <row r="19" spans="16:31" x14ac:dyDescent="0.25">
-      <c r="Y19" s="3"/>
-      <c r="Z19" s="3"/>
-      <c r="AA19" s="3"/>
-      <c r="AB19" s="3"/>
-      <c r="AC19" s="3"/>
-      <c r="AD19" s="3"/>
-      <c r="AE19" s="3"/>
-    </row>
-    <row r="20" spans="16:31" x14ac:dyDescent="0.25">
-      <c r="Y20" s="3"/>
-      <c r="Z20" s="3"/>
-      <c r="AA20" s="3"/>
-      <c r="AB20" s="3"/>
-      <c r="AC20" s="3"/>
-      <c r="AD20" s="3"/>
-      <c r="AE20" s="3"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="kcto5CaXWg9s2JsALmOY3zaHb6leum/q0rC6Mk7Qr8lLzoGmyWhIMTFLd3WyLGzj06sq/KIboHcQVCcdPN6Riw==" saltValue="TJoCiD7DH4qU0FJi/K0kWg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
-  <autoFilter ref="A2:CL2" xr:uid="{00000000-0009-0000-0000-000000000000}">
+  <sheetProtection algorithmName="SHA-512" hashValue="1WKKfa70g6uIT4vrRG25qlQMzzBEzUhu3aY76vD7dh+yLdvXdldDnoE5pEcJs8gVZzy1vgQJGrgbgeKt77NaQw==" saltValue="1a3cRtQtAK1cieZQenFNqQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <autoFilter ref="A2:CN2" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:CJ376">
       <sortCondition ref="A1:A376"/>
     </sortState>

--- a/Common/Style/Resource/Template/Import_Schueler.xlsx
+++ b/Common/Style/Resource/Template/Import_Schueler.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\PhpstormProjects\Common\Style\Resource\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{279FBC78-D811-40D2-84A1-25477F75FEC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F87B847-C2A5-4C26-9CE2-46F8F46B6F38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="145">
   <si>
     <t>Nr</t>
   </si>
@@ -63,9 +63,6 @@
     <t>HNR</t>
   </si>
   <si>
-    <t>Klasse/Kurs</t>
-  </si>
-  <si>
     <t>Schulart</t>
   </si>
   <si>
@@ -460,6 +457,12 @@
   </si>
   <si>
     <t>Unterstufe, Mittelstufe, Oberstufe, Werkstufe</t>
+  </si>
+  <si>
+    <t>Klasse</t>
+  </si>
+  <si>
+    <t>Sommer / Mars</t>
   </si>
 </sst>
 </file>
@@ -562,7 +565,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1">
       <protection locked="0"/>
@@ -570,13 +573,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
@@ -585,36 +581,45 @@
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="14" fontId="6" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -945,13 +950,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:CP8"/>
+  <dimension ref="A1:CN8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="5" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -963,7 +968,7 @@
     <col min="5" max="5" width="11.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16" style="16" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="21" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13.140625" style="2" bestFit="1" customWidth="1"/>
@@ -1035,594 +1040,596 @@
     <col min="77" max="77" width="9.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="78" max="78" width="15.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="79" max="79" width="13.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="80" max="80" width="25.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="81" max="81" width="13.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="82" max="82" width="34.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="83" max="83" width="15.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="84" max="84" width="15.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="85" max="85" width="24.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="15.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="25.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="13.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="34.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="84" max="84" width="15.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="85" max="85" width="24.42578125" style="4" bestFit="1" customWidth="1"/>
     <col min="86" max="86" width="13.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="87" max="87" width="15.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="88" max="88" width="15.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="89" max="89" width="23.5703125" style="2" customWidth="1"/>
+    <col min="89" max="89" width="23.5703125" style="16" customWidth="1"/>
     <col min="90" max="90" width="41.7109375" style="2" customWidth="1"/>
     <col min="91" max="91" width="11.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="92" max="92" width="19" style="2" bestFit="1" customWidth="1"/>
-    <col min="95" max="16384" width="16.140625" style="2"/>
+    <col min="93" max="16384" width="16.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:92" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4"/>
-      <c r="B1" s="3">
+    <row r="1" spans="1:92" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6"/>
+      <c r="B1" s="7">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="H1" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="J1" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="H1" s="3" t="s">
+      <c r="K1" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="N1" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="O1" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P1" s="7">
+        <v>7</v>
+      </c>
+      <c r="Q1" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="R1" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="S1" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="T1" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="U1" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="V1" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="W1" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="X1" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y1" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Z1" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA1" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="AB1" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="AC1" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="AD1" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="AE1" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="AF1" s="7">
+        <v>7</v>
+      </c>
+      <c r="AG1" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="AH1" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="AI1" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AJ1" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="AK1" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="AL1" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="AM1" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="AN1" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="AO1" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="AP1" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="AQ1" s="7">
+        <v>18745</v>
+      </c>
+      <c r="AR1" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="AS1" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="AT1" s="7"/>
+      <c r="AU1" s="7">
+        <v>5417</v>
+      </c>
+      <c r="AV1" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="AW1" s="7"/>
+      <c r="AX1" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="AY1" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="AZ1" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="BA1" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="BB1" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="BC1" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="BD1" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="BE1" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="BF1" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="BG1" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="BH1" s="7">
+        <v>7</v>
+      </c>
+      <c r="BI1" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="BJ1" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="BK1" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="BL1" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="BM1" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="BN1" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="BO1" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="BP1" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="BQ1" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="BR1" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="BS1" s="7">
+        <v>18746</v>
+      </c>
+      <c r="BT1" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="BU1" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="BV1" s="7"/>
+      <c r="BW1" s="7">
+        <v>5418</v>
+      </c>
+      <c r="BX1" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="BY1" s="7"/>
+      <c r="BZ1" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="CA1" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="CB1" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="CC1" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="CD1" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="CE1" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="CF1" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="CG1" s="9">
+        <v>43831</v>
+      </c>
+      <c r="CH1" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="CI1" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="CJ1" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="CK1" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="CL1" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="CM1" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="CN1" s="7" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2" spans="1:92" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="K2" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="L2" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="M2" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="N2" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="O2" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="P2" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q2" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="R2" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="S2" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="T2" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="U2" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="V2" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="W2" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="X2" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y2" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z2" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA2" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="AB2" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC2" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD2" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="AE2" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="AF2" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="AG2" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="AH2" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="AI2" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ2" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="AK2" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="AL2" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="AM2" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="AN2" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO2" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="AP2" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="AQ2" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="AR2" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="AS2" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="AT2" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="AU2" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="AV2" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="AW2" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="AX2" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="AY2" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="AZ2" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="BA2" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="BB2" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="BC2" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="BD2" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="BE2" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="BF2" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="BG2" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="BH2" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="BI2" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="BJ2" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="BK2" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="BL2" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="BM2" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="BN2" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="BO2" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="BP2" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="BQ2" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="BR2" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="BS2" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="BT2" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="BU2" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="BV2" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="BW2" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="BX2" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="BY2" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="BZ2" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="CA2" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="CB2" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="CC2" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="CD2" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="CE2" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="CF2" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="CG2" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="CH2" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="CI2" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="CJ2" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="CK2" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="CL2" s="18" t="s">
         <v>139</v>
       </c>
-      <c r="I1" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="P1" s="3">
-        <v>7</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="T1" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="U1" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="V1" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="W1" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="X1" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y1" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="Z1" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="AA1" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="AB1" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="AC1" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="AD1" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="AE1" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="AF1" s="3">
-        <v>7</v>
-      </c>
-      <c r="AG1" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="AH1" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="AI1" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="AJ1" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="AK1" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="AL1" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="AM1" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="AN1" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="AO1" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="AP1" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="AQ1" s="3">
-        <v>18745</v>
-      </c>
-      <c r="AR1" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="AS1" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="AT1" s="3"/>
-      <c r="AU1" s="3">
-        <v>5417</v>
-      </c>
-      <c r="AV1" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="AW1" s="3"/>
-      <c r="AX1" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="AY1" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="AZ1" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="BA1" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="BB1" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="BC1" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="BD1" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="BE1" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="BF1" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="BG1" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="BH1" s="3">
-        <v>7</v>
-      </c>
-      <c r="BI1" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="BJ1" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="BK1" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="BL1" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="BM1" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="BN1" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="BO1" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="BP1" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="BQ1" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="BR1" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="BS1" s="3">
-        <v>18746</v>
-      </c>
-      <c r="BT1" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="BU1" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="BV1" s="3"/>
-      <c r="BW1" s="3">
-        <v>5418</v>
-      </c>
-      <c r="BX1" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="BY1" s="3"/>
-      <c r="BZ1" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="CA1" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="CB1" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="CC1" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="CD1" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="CE1" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="CF1" s="13"/>
-      <c r="CG1" s="14">
-        <v>43831</v>
-      </c>
-      <c r="CH1" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="CI1" s="13" t="s">
-        <v>120</v>
-      </c>
-      <c r="CJ1" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="CK1" s="12" t="s">
-        <v>142</v>
-      </c>
-      <c r="CL1" s="12" t="s">
-        <v>143</v>
-      </c>
-      <c r="CM1" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="CN1" s="13" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="2" spans="1:92" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="K2" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="L2" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="M2" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="N2" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="O2" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="P2" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q2" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="R2" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="S2" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="T2" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="U2" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="V2" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="W2" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="X2" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y2" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z2" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="AA2" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="AB2" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="AC2" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="AD2" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="AE2" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="AF2" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="AG2" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="AH2" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="AI2" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="AJ2" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="AK2" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="AL2" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="AM2" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="AN2" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="AO2" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="AP2" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="AQ2" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="AR2" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="AS2" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="AT2" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="AU2" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="AV2" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="AW2" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="AX2" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="AY2" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="AZ2" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="BA2" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="BB2" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="BC2" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="BD2" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="BE2" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="BF2" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="BG2" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="BH2" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="BI2" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="BJ2" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="BK2" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="BL2" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="BM2" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="BN2" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="BO2" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="BP2" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="BQ2" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="BR2" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="BS2" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="BT2" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="BU2" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="BV2" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="BW2" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="BX2" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="BY2" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="BZ2" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="CA2" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="CB2" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="CC2" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="CD2" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="CE2" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="CF2" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="CG2" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="CH2" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="CI2" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="CJ2" s="15" t="s">
+      <c r="CM2" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="CK2" s="17" t="s">
-        <v>141</v>
-      </c>
-      <c r="CL2" s="17" t="s">
-        <v>140</v>
-      </c>
-      <c r="CM2" s="15" t="s">
+      <c r="CN2" s="11" t="s">
         <v>17</v>
-      </c>
-      <c r="CN2" s="15" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:92" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L4" s="1"/>
     </row>
     <row r="5" spans="1:92" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:92" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="7" spans="1:92" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="8" spans="1:92" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="1WKKfa70g6uIT4vrRG25qlQMzzBEzUhu3aY76vD7dh+yLdvXdldDnoE5pEcJs8gVZzy1vgQJGrgbgeKt77NaQw==" saltValue="1a3cRtQtAK1cieZQenFNqQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="xULIg5CZd168L5jPj/PhWijTcWQgVuWgr5KUtOdn961YWkkZCkUC6yAuodLkQSwa++K+Mg+HN3MCeT9tk6ZELA==" saltValue="UczFd/AA0ShfWdzORIgdVw==" spinCount="100000" sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" autoFilter="0"/>
   <autoFilter ref="A2:CN2" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:CJ376">
       <sortCondition ref="A1:A376"/>

--- a/Common/Style/Resource/Template/Import_Schueler.xlsx
+++ b/Common/Style/Resource/Template/Import_Schueler.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\PhpstormProjects\Common\Style\Resource\Template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\siddy\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F87B847-C2A5-4C26-9CE2-46F8F46B6F38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{553EE476-39F5-4DAE-9970-29904B1CFFC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Schüler" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Schüler!$A$2:$CN$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Schüler!$A$2:$CQ$2</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="148">
   <si>
     <t>Nr</t>
   </si>
@@ -463,6 +463,15 @@
   </si>
   <si>
     <t>Sommer / Mars</t>
+  </si>
+  <si>
+    <t>E_Mail_Geschäftlich</t>
+  </si>
+  <si>
+    <t>sebastian@schule.de</t>
+  </si>
+  <si>
+    <t>US / MS / OS / WS</t>
   </si>
 </sst>
 </file>
@@ -565,7 +574,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1">
       <protection locked="0"/>
@@ -585,41 +594,42 @@
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="14" fontId="6" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -950,13 +960,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:CN8"/>
+  <dimension ref="A1:CQ8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="5" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -968,7 +978,7 @@
     <col min="5" max="5" width="11.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16" style="16" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16" style="6" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="21" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13.140625" style="2" bestFit="1" customWidth="1"/>
@@ -983,655 +993,676 @@
     <col min="20" max="20" width="17" style="2" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="14.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="18.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="11.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="20.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="9.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="9.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="13" style="2" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="12" style="2" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="10.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="12" style="2" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="26" style="2" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="23.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="21.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="18.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="20.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="17.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="24.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="18.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="25.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="22.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="12.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="17.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="18.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="23" style="2" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="12.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="9.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="17.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="12.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="11.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="14.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="20.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="9.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="9.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="13" style="2" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="12" style="2" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="10.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="12" style="2" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="26" style="2" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="23.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="21.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="18.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="20.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="17.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="24.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="18.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="25.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="22.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="11.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="17.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="18.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="23" style="2" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="12.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="9.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="78" max="78" width="15.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="79" max="79" width="13.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="80" max="80" width="15.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="81" max="81" width="25.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="82" max="82" width="13.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="83" max="83" width="34.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="84" max="84" width="15.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="85" max="85" width="24.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="86" max="86" width="13.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="87" max="87" width="15.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="88" max="88" width="15.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="89" max="89" width="23.5703125" style="16" customWidth="1"/>
-    <col min="90" max="90" width="41.7109375" style="2" customWidth="1"/>
-    <col min="91" max="91" width="11.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="92" max="92" width="19" style="2" bestFit="1" customWidth="1"/>
-    <col min="93" max="16384" width="16.140625" style="2"/>
+    <col min="23" max="23" width="19.85546875" style="2" customWidth="1"/>
+    <col min="24" max="24" width="12.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="11.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="20.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="9.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="9.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="13" style="2" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="12" style="2" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="10.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="12" style="2" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="26" style="2" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="23.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="21.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="18.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="20.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="17.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="24.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="18.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="25.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="22.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="12.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="17.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="18.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="23" style="2" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="12.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="9.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="17.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="12.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="11.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="14.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="20.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="9.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="9.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="13" style="2" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="12" style="2" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="10.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="12" style="2" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="26" style="2" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="23.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="21.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="18.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="20.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="17.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="24.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="18.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="25.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="22.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="11.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="17.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="18.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="23" style="2" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="12.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="9.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="15.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="13.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="15.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="20.140625" style="2" customWidth="1"/>
+    <col min="83" max="83" width="25.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="84" max="84" width="13.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="85" max="85" width="34.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="86" max="86" width="15.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="87" max="87" width="24.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="88" max="88" width="13.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="89" max="89" width="15.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="90" max="90" width="15.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="91" max="91" width="24.28515625" style="2" customWidth="1"/>
+    <col min="92" max="92" width="23.5703125" style="6" customWidth="1"/>
+    <col min="93" max="93" width="41.7109375" style="2" customWidth="1"/>
+    <col min="94" max="94" width="11.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="95" max="95" width="19" style="2" bestFit="1" customWidth="1"/>
+    <col min="96" max="16384" width="16.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:92" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6"/>
-      <c r="B1" s="7">
+    <row r="1" spans="1:95" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="7"/>
+      <c r="B1" s="8">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="H1" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="K1" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="L1" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="M1" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="N1" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="O1" s="7" t="s">
+      <c r="O1" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="P1" s="7">
+      <c r="P1" s="8">
         <v>7</v>
       </c>
-      <c r="Q1" s="7" t="s">
+      <c r="Q1" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="R1" s="7" t="s">
+      <c r="R1" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="S1" s="7" t="s">
+      <c r="S1" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="T1" s="7" t="s">
+      <c r="T1" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="U1" s="7" t="s">
+      <c r="U1" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="V1" s="8" t="s">
+      <c r="V1" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="W1" s="7" t="s">
+      <c r="W1" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="X1" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="X1" s="7" t="s">
+      <c r="Y1" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="Y1" s="7" t="s">
+      <c r="Z1" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="Z1" s="7" t="s">
+      <c r="AA1" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="AA1" s="7" t="s">
+      <c r="AB1" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="AB1" s="7" t="s">
+      <c r="AC1" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="AC1" s="7" t="s">
+      <c r="AD1" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="AD1" s="7" t="s">
+      <c r="AE1" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="AE1" s="7" t="s">
+      <c r="AF1" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="AF1" s="7">
+      <c r="AG1" s="8">
         <v>7</v>
       </c>
-      <c r="AG1" s="7" t="s">
+      <c r="AH1" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="AH1" s="7" t="s">
+      <c r="AI1" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="AI1" s="7" t="s">
+      <c r="AJ1" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="AJ1" s="7" t="s">
+      <c r="AK1" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="AK1" s="7" t="s">
+      <c r="AL1" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="AL1" s="7" t="s">
+      <c r="AM1" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="AM1" s="7" t="s">
+      <c r="AN1" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="AN1" s="8" t="s">
+      <c r="AO1" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="AO1" s="8" t="s">
+      <c r="AP1" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="AP1" s="7" t="s">
+      <c r="AQ1" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="AQ1" s="7">
+      <c r="AR1" s="8">
         <v>18745</v>
       </c>
-      <c r="AR1" s="7" t="s">
+      <c r="AS1" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="AS1" s="7" t="s">
+      <c r="AT1" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="AT1" s="7"/>
-      <c r="AU1" s="7">
+      <c r="AU1" s="8"/>
+      <c r="AV1" s="8">
         <v>5417</v>
       </c>
-      <c r="AV1" s="7" t="s">
+      <c r="AW1" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="AW1" s="7"/>
-      <c r="AX1" s="7" t="s">
+      <c r="AX1" s="8"/>
+      <c r="AY1" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="AY1" s="7" t="s">
+      <c r="AZ1" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="AZ1" s="7" t="s">
+      <c r="BA1" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="BA1" s="7" t="s">
+      <c r="BB1" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="BB1" s="7" t="s">
+      <c r="BC1" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="BC1" s="7" t="s">
+      <c r="BD1" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="BD1" s="7" t="s">
+      <c r="BE1" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="BE1" s="7" t="s">
+      <c r="BF1" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="BF1" s="7" t="s">
+      <c r="BG1" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="BG1" s="7" t="s">
+      <c r="BH1" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="BH1" s="7">
+      <c r="BI1" s="8">
         <v>7</v>
       </c>
-      <c r="BI1" s="7" t="s">
+      <c r="BJ1" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="BJ1" s="7" t="s">
+      <c r="BK1" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="BK1" s="7" t="s">
+      <c r="BL1" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="BL1" s="7" t="s">
+      <c r="BM1" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="BM1" s="7" t="s">
+      <c r="BN1" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="BN1" s="7" t="s">
+      <c r="BO1" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="BO1" s="7" t="s">
+      <c r="BP1" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="BP1" s="8" t="s">
+      <c r="BQ1" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="BQ1" s="8" t="s">
+      <c r="BR1" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="BR1" s="7" t="s">
+      <c r="BS1" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="BS1" s="7">
+      <c r="BT1" s="8">
         <v>18746</v>
       </c>
-      <c r="BT1" s="7" t="s">
+      <c r="BU1" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="BU1" s="7" t="s">
+      <c r="BV1" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="BV1" s="7"/>
-      <c r="BW1" s="7">
+      <c r="BW1" s="8"/>
+      <c r="BX1" s="8">
         <v>5418</v>
       </c>
-      <c r="BX1" s="7" t="s">
+      <c r="BY1" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="BY1" s="7"/>
-      <c r="BZ1" s="7" t="s">
+      <c r="BZ1" s="8"/>
+      <c r="CA1" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="CA1" s="7" t="s">
+      <c r="CB1" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="CB1" s="7" t="s">
+      <c r="CC1" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="CC1" s="7" t="s">
+      <c r="CD1" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="CE1" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="CD1" s="7" t="s">
+      <c r="CF1" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="CE1" s="7" t="s">
+      <c r="CG1" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="CF1" s="7" t="s">
+      <c r="CH1" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="CG1" s="9">
+      <c r="CI1" s="12">
         <v>43831</v>
       </c>
-      <c r="CH1" s="7" t="s">
+      <c r="CJ1" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="CI1" s="7" t="s">
+      <c r="CK1" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="CJ1" s="7" t="s">
+      <c r="CL1" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="CK1" s="17" t="s">
+      <c r="CM1" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="CL1" s="10" t="s">
+      <c r="CN1" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="CO1" s="14" t="s">
         <v>142</v>
       </c>
-      <c r="CM1" s="7" t="s">
+      <c r="CP1" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="CN1" s="7" t="s">
+      <c r="CQ1" s="8" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="2" spans="1:92" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+    <row r="2" spans="1:95" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="H2" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="I2" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="11" t="s">
+      <c r="J2" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="K2" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="L2" s="11" t="s">
+      <c r="L2" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="M2" s="11" t="s">
+      <c r="M2" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="N2" s="11" t="s">
+      <c r="N2" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="O2" s="11" t="s">
+      <c r="O2" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="P2" s="11" t="s">
+      <c r="P2" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="Q2" s="11" t="s">
+      <c r="Q2" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="R2" s="11" t="s">
+      <c r="R2" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="S2" s="11" t="s">
+      <c r="S2" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="T2" s="11" t="s">
+      <c r="T2" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="U2" s="11" t="s">
+      <c r="U2" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="V2" s="11" t="s">
+      <c r="V2" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="W2" s="12" t="s">
+      <c r="W2" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="X2" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="X2" s="12" t="s">
+      <c r="Y2" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="Y2" s="12" t="s">
+      <c r="Z2" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="Z2" s="12" t="s">
+      <c r="AA2" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="AA2" s="12" t="s">
+      <c r="AB2" s="16" t="s">
         <v>128</v>
       </c>
-      <c r="AB2" s="12" t="s">
+      <c r="AC2" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="AC2" s="12" t="s">
+      <c r="AD2" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="AD2" s="12" t="s">
+      <c r="AE2" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="AE2" s="12" t="s">
+      <c r="AF2" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="AF2" s="12" t="s">
+      <c r="AG2" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="AG2" s="12" t="s">
+      <c r="AH2" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="AH2" s="12" t="s">
+      <c r="AI2" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="AI2" s="12" t="s">
+      <c r="AJ2" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="AJ2" s="12" t="s">
+      <c r="AK2" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="AK2" s="12" t="s">
+      <c r="AL2" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="AL2" s="12" t="s">
+      <c r="AM2" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="AM2" s="12" t="s">
+      <c r="AN2" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="AN2" s="12" t="s">
+      <c r="AO2" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="AO2" s="12" t="s">
+      <c r="AP2" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="AP2" s="12" t="s">
+      <c r="AQ2" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="AQ2" s="12" t="s">
+      <c r="AR2" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="AR2" s="12" t="s">
+      <c r="AS2" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="AS2" s="12" t="s">
+      <c r="AT2" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="AT2" s="12" t="s">
+      <c r="AU2" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="AU2" s="12" t="s">
+      <c r="AV2" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="AV2" s="12" t="s">
+      <c r="AW2" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="AW2" s="12" t="s">
+      <c r="AX2" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="AX2" s="12" t="s">
+      <c r="AY2" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="AY2" s="13" t="s">
+      <c r="AZ2" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="AZ2" s="13" t="s">
+      <c r="BA2" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="BA2" s="13" t="s">
+      <c r="BB2" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="BB2" s="13" t="s">
+      <c r="BC2" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="BC2" s="13" t="s">
+      <c r="BD2" s="17" t="s">
         <v>130</v>
       </c>
-      <c r="BD2" s="13" t="s">
+      <c r="BE2" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="BE2" s="13" t="s">
+      <c r="BF2" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="BF2" s="13" t="s">
+      <c r="BG2" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="BG2" s="13" t="s">
+      <c r="BH2" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="BH2" s="13" t="s">
+      <c r="BI2" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="BI2" s="13" t="s">
+      <c r="BJ2" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="BJ2" s="13" t="s">
+      <c r="BK2" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="BK2" s="13" t="s">
+      <c r="BL2" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="BL2" s="13" t="s">
+      <c r="BM2" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="BM2" s="13" t="s">
+      <c r="BN2" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="BN2" s="13" t="s">
+      <c r="BO2" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="BO2" s="13" t="s">
+      <c r="BP2" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="BP2" s="13" t="s">
+      <c r="BQ2" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="BQ2" s="13" t="s">
+      <c r="BR2" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="BR2" s="13" t="s">
+      <c r="BS2" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="BS2" s="13" t="s">
+      <c r="BT2" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="BT2" s="13" t="s">
+      <c r="BU2" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="BU2" s="13" t="s">
+      <c r="BV2" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="BV2" s="13" t="s">
+      <c r="BW2" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="BW2" s="13" t="s">
+      <c r="BX2" s="17" t="s">
         <v>126</v>
       </c>
-      <c r="BX2" s="13" t="s">
+      <c r="BY2" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="BY2" s="13" t="s">
+      <c r="BZ2" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="BZ2" s="13" t="s">
+      <c r="CA2" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="CA2" s="11" t="s">
+      <c r="CB2" s="15" t="s">
         <v>143</v>
       </c>
-      <c r="CB2" s="11" t="s">
+      <c r="CC2" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="CC2" s="11" t="s">
+      <c r="CD2" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="CE2" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="CD2" s="11" t="s">
+      <c r="CF2" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="CE2" s="11" t="s">
+      <c r="CG2" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="CF2" s="11" t="s">
+      <c r="CH2" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="CG2" s="14" t="s">
+      <c r="CI2" s="18" t="s">
         <v>136</v>
       </c>
-      <c r="CH2" s="11" t="s">
+      <c r="CJ2" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="CI2" s="11" t="s">
+      <c r="CK2" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="CJ2" s="11" t="s">
+      <c r="CL2" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="CK2" s="18" t="s">
+      <c r="CM2" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="CN2" s="19" t="s">
         <v>140</v>
       </c>
-      <c r="CL2" s="18" t="s">
+      <c r="CO2" s="19" t="s">
         <v>139</v>
       </c>
-      <c r="CM2" s="11" t="s">
+      <c r="CP2" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="CN2" s="11" t="s">
+      <c r="CQ2" s="15" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:95" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>101</v>
       </c>
       <c r="L4" s="1"/>
     </row>
-    <row r="5" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:95" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="6" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:95" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="7" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:95" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="8" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:95" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
         <v>125</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="xULIg5CZd168L5jPj/PhWijTcWQgVuWgr5KUtOdn961YWkkZCkUC6yAuodLkQSwa++K+Mg+HN3MCeT9tk6ZELA==" saltValue="UczFd/AA0ShfWdzORIgdVw==" spinCount="100000" sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" autoFilter="0"/>
-  <autoFilter ref="A2:CN2" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:CJ376">
+  <sheetProtection algorithmName="SHA-512" hashValue="CJuAN3hmeUJh0Lhwyx2250BSN9/LEBkRlzcK51yI8szgTjHYTddnAbCt6+0gckHXsMOujHvPXS8XZGNrPr/4VQ==" saltValue="Hp0f4dBgc2s2LQK0AqeX3w==" spinCount="100000" sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" autoFilter="0"/>
+  <autoFilter ref="A2:CQ2" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:CL376">
       <sortCondition ref="A1:A376"/>
     </sortState>
   </autoFilter>

--- a/Common/Style/Resource/Template/Import_Schueler.xlsx
+++ b/Common/Style/Resource/Template/Import_Schueler.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\siddy\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kmiezik\Desktop\Schele\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{553EE476-39F5-4DAE-9970-29904B1CFFC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C55DEF6-1818-42D6-A3F0-DD0CA1BF3A4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Schüler" sheetId="1" r:id="rId1"/>
@@ -574,7 +574,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1">
       <protection locked="0"/>
@@ -597,39 +597,38 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="14" fontId="4" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyProtection="1"/>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="6" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="14" fontId="6" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -966,7 +965,7 @@
       <pane xSplit="5" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -979,9 +978,9 @@
     <col min="6" max="6" width="16" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16" style="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.7109375" style="2" customWidth="1"/>
     <col min="10" max="10" width="21" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.85546875" style="2" customWidth="1"/>
     <col min="12" max="12" width="6.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="8.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="10.7109375" style="2" bestFit="1" customWidth="1"/>
@@ -1134,7 +1133,7 @@
       <c r="V1" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="W1" s="11" t="s">
+      <c r="W1" t="s">
         <v>146</v>
       </c>
       <c r="X1" s="8" t="s">
@@ -1318,7 +1317,7 @@
       <c r="CH1" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="CI1" s="12">
+      <c r="CI1" s="11">
         <v>43831</v>
       </c>
       <c r="CJ1" s="8" t="s">
@@ -1330,13 +1329,13 @@
       <c r="CL1" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="CM1" s="13" t="s">
+      <c r="CM1" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="CN1" s="13" t="s">
+      <c r="CN1" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="CO1" s="14" t="s">
+      <c r="CO1" s="13" t="s">
         <v>142</v>
       </c>
       <c r="CP1" s="8" t="s">
@@ -1347,289 +1346,289 @@
       </c>
     </row>
     <row r="2" spans="1:95" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="F2" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="15" t="s">
+      <c r="G2" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="15" t="s">
+      <c r="H2" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="15" t="s">
+      <c r="I2" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="15" t="s">
+      <c r="J2" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="15" t="s">
+      <c r="K2" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="L2" s="15" t="s">
+      <c r="L2" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="M2" s="15" t="s">
+      <c r="M2" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="N2" s="15" t="s">
+      <c r="N2" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="O2" s="15" t="s">
+      <c r="O2" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="P2" s="15" t="s">
+      <c r="P2" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="Q2" s="15" t="s">
+      <c r="Q2" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="R2" s="15" t="s">
+      <c r="R2" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="S2" s="15" t="s">
+      <c r="S2" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="T2" s="15" t="s">
+      <c r="T2" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="U2" s="15" t="s">
+      <c r="U2" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="V2" s="15" t="s">
+      <c r="V2" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="W2" s="15" t="s">
+      <c r="W2" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="X2" s="16" t="s">
+      <c r="X2" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="Y2" s="16" t="s">
+      <c r="Y2" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="Z2" s="16" t="s">
+      <c r="Z2" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="AA2" s="16" t="s">
+      <c r="AA2" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="AB2" s="16" t="s">
+      <c r="AB2" s="15" t="s">
         <v>128</v>
       </c>
-      <c r="AC2" s="16" t="s">
+      <c r="AC2" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="AD2" s="16" t="s">
+      <c r="AD2" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="AE2" s="16" t="s">
+      <c r="AE2" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="AF2" s="16" t="s">
+      <c r="AF2" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="AG2" s="16" t="s">
+      <c r="AG2" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="AH2" s="16" t="s">
+      <c r="AH2" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="AI2" s="16" t="s">
+      <c r="AI2" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="AJ2" s="16" t="s">
+      <c r="AJ2" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="AK2" s="16" t="s">
+      <c r="AK2" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="AL2" s="16" t="s">
+      <c r="AL2" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="AM2" s="16" t="s">
+      <c r="AM2" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="AN2" s="16" t="s">
+      <c r="AN2" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="AO2" s="16" t="s">
+      <c r="AO2" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="AP2" s="16" t="s">
+      <c r="AP2" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="AQ2" s="16" t="s">
+      <c r="AQ2" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="AR2" s="16" t="s">
+      <c r="AR2" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="AS2" s="16" t="s">
+      <c r="AS2" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="AT2" s="16" t="s">
+      <c r="AT2" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="AU2" s="16" t="s">
+      <c r="AU2" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="AV2" s="16" t="s">
+      <c r="AV2" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="AW2" s="16" t="s">
+      <c r="AW2" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="AX2" s="16" t="s">
+      <c r="AX2" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="AY2" s="16" t="s">
+      <c r="AY2" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="AZ2" s="17" t="s">
+      <c r="AZ2" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="BA2" s="17" t="s">
+      <c r="BA2" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="BB2" s="17" t="s">
+      <c r="BB2" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="BC2" s="17" t="s">
+      <c r="BC2" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="BD2" s="17" t="s">
+      <c r="BD2" s="16" t="s">
         <v>130</v>
       </c>
-      <c r="BE2" s="17" t="s">
+      <c r="BE2" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="BF2" s="17" t="s">
+      <c r="BF2" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="BG2" s="17" t="s">
+      <c r="BG2" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="BH2" s="17" t="s">
+      <c r="BH2" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="BI2" s="17" t="s">
+      <c r="BI2" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="BJ2" s="17" t="s">
+      <c r="BJ2" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="BK2" s="17" t="s">
+      <c r="BK2" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="BL2" s="17" t="s">
+      <c r="BL2" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="BM2" s="17" t="s">
+      <c r="BM2" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="BN2" s="17" t="s">
+      <c r="BN2" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="BO2" s="17" t="s">
+      <c r="BO2" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="BP2" s="17" t="s">
+      <c r="BP2" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="BQ2" s="17" t="s">
+      <c r="BQ2" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="BR2" s="17" t="s">
+      <c r="BR2" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="BS2" s="17" t="s">
+      <c r="BS2" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="BT2" s="17" t="s">
+      <c r="BT2" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="BU2" s="17" t="s">
+      <c r="BU2" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="BV2" s="17" t="s">
+      <c r="BV2" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="BW2" s="17" t="s">
+      <c r="BW2" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="BX2" s="17" t="s">
+      <c r="BX2" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="BY2" s="17" t="s">
+      <c r="BY2" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="BZ2" s="17" t="s">
+      <c r="BZ2" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="CA2" s="17" t="s">
+      <c r="CA2" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="CB2" s="15" t="s">
+      <c r="CB2" s="14" t="s">
         <v>143</v>
       </c>
-      <c r="CC2" s="15" t="s">
+      <c r="CC2" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="CD2" s="15" t="s">
+      <c r="CD2" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="CE2" s="15" t="s">
+      <c r="CE2" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="CF2" s="15" t="s">
+      <c r="CF2" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="CG2" s="15" t="s">
+      <c r="CG2" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="CH2" s="15" t="s">
+      <c r="CH2" s="14" t="s">
         <v>135</v>
       </c>
-      <c r="CI2" s="18" t="s">
+      <c r="CI2" s="17" t="s">
         <v>136</v>
       </c>
-      <c r="CJ2" s="15" t="s">
+      <c r="CJ2" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="CK2" s="15" t="s">
+      <c r="CK2" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="CL2" s="15" t="s">
+      <c r="CL2" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="CM2" s="15" t="s">
+      <c r="CM2" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="CN2" s="19" t="s">
+      <c r="CN2" s="18" t="s">
         <v>140</v>
       </c>
-      <c r="CO2" s="19" t="s">
+      <c r="CO2" s="18" t="s">
         <v>139</v>
       </c>
-      <c r="CP2" s="15" t="s">
+      <c r="CP2" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="CQ2" s="15" t="s">
+      <c r="CQ2" s="14" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1660,7 +1659,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="CJuAN3hmeUJh0Lhwyx2250BSN9/LEBkRlzcK51yI8szgTjHYTddnAbCt6+0gckHXsMOujHvPXS8XZGNrPr/4VQ==" saltValue="Hp0f4dBgc2s2LQK0AqeX3w==" spinCount="100000" sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" autoFilter="0"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="jKMmSBv12aRWFcFL2fjXtZ4vzt4AkwV0W/SPWoXAJtXC2jzC+P5Fdkngx11hGqctwi61gCSYT+rAjIRQGBsgAA==" saltValue="GHOAb7boiBXR2lgzLQRI0g==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatColumns="0" formatRows="0" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
   <autoFilter ref="A2:CQ2" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:CL376">
       <sortCondition ref="A1:A376"/>

--- a/Common/Style/Resource/Template/Import_Schueler.xlsx
+++ b/Common/Style/Resource/Template/Import_Schueler.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kmiezik\Desktop\Schele\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kmiezik\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C55DEF6-1818-42D6-A3F0-DD0CA1BF3A4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCFB1114-BD51-4BCE-B57F-9E98BAD67975}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Schüler" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Schüler!$A$2:$CQ$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Schüler!$A$2:$CP$2</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="146">
   <si>
     <t>Nr</t>
   </si>
@@ -300,21 +300,12 @@
     <t>Sebastian</t>
   </si>
   <si>
-    <t>Basti</t>
-  </si>
-  <si>
     <t>Rodewisch</t>
   </si>
   <si>
     <t>Zwickau</t>
   </si>
   <si>
-    <t>Marienthal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Waldstrße </t>
-  </si>
-  <si>
     <t>Deutschland</t>
   </si>
   <si>
@@ -345,27 +336,18 @@
     <t>0173…</t>
   </si>
   <si>
-    <t>Müller@schulsoftware.de</t>
-  </si>
-  <si>
     <t>müller@web.de</t>
   </si>
   <si>
     <t>ja</t>
   </si>
   <si>
-    <t>Bankkauffrau</t>
-  </si>
-  <si>
     <t>Sparkasse Zwickau</t>
   </si>
   <si>
     <t>DE42 0000 …..</t>
   </si>
   <si>
-    <t>Soarkasse Zwickau</t>
-  </si>
-  <si>
     <t>Frank</t>
   </si>
   <si>
@@ -417,9 +399,6 @@
     <t>S1_Alleinerziehend</t>
   </si>
   <si>
-    <t>x</t>
-  </si>
-  <si>
     <t>S2_Alleinerziehend</t>
   </si>
   <si>
@@ -471,14 +450,29 @@
     <t>sebastian@schule.de</t>
   </si>
   <si>
-    <t>US / MS / OS / WS</t>
+    <t>Crossen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Waldstraße </t>
+  </si>
+  <si>
+    <t>müller@schulsoftware.de</t>
+  </si>
+  <si>
+    <t>Volkswagen Sachsen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bürokauffrau </t>
+  </si>
+  <si>
+    <t>Bemerkungen</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -510,13 +504,6 @@
     <font>
       <sz val="11"/>
       <color theme="1" tint="0.249977111117893"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF172B4D"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -574,7 +561,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1">
       <protection locked="0"/>
@@ -584,10 +571,6 @@
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
@@ -607,13 +590,10 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="5" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -625,10 +605,6 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -663,9 +639,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 – 2022-Design">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 – 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -703,7 +679,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 – 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -809,7 +785,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 – 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -951,7 +927,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -959,13 +935,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:CQ8"/>
+  <dimension ref="A1:CP8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="5" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J1" sqref="J1"/>
+      <selection pane="bottomRight" activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -973,18 +949,18 @@
     <col min="1" max="1" width="5.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16" style="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.7109375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="16" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="21" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.85546875" style="2" customWidth="1"/>
+    <col min="11" max="11" width="13.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="6.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="8.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="7.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="12" style="2" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="18" style="2" bestFit="1" customWidth="1"/>
@@ -992,676 +968,653 @@
     <col min="20" max="20" width="17" style="2" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="14.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="18.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="19.85546875" style="2" customWidth="1"/>
-    <col min="24" max="24" width="12.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="11.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="20.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="9.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="9.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="13" style="2" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="12" style="2" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="10.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="12" style="2" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="26" style="2" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="23.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="21.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="18.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="20.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="17.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="24.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="18.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="25.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="22.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="12.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="17.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="18.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="23" style="2" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="12.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="9.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="17.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="12.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="11.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="14.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="20.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="9.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="9.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="13" style="2" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="12" style="2" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="10.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="12" style="2" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="26" style="2" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="23.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="21.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="18.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="20.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="17.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="24.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="18.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="25.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="22.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="11.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="17.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="18.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="23" style="2" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="12.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="78" max="78" width="9.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="79" max="79" width="15.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="80" max="80" width="13.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="81" max="81" width="15.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="82" max="82" width="20.140625" style="2" customWidth="1"/>
-    <col min="83" max="83" width="25.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="84" max="84" width="13.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="85" max="85" width="34.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="86" max="86" width="15.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="87" max="87" width="24.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="88" max="88" width="13.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="89" max="89" width="15.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="90" max="90" width="15.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="91" max="91" width="24.28515625" style="2" customWidth="1"/>
-    <col min="92" max="92" width="23.5703125" style="6" customWidth="1"/>
-    <col min="93" max="93" width="41.7109375" style="2" customWidth="1"/>
-    <col min="94" max="94" width="11.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="95" max="95" width="19" style="2" bestFit="1" customWidth="1"/>
-    <col min="96" max="16384" width="16.140625" style="2"/>
+    <col min="23" max="23" width="21.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="38" width="21.140625" style="2" customWidth="1"/>
+    <col min="39" max="39" width="12.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="11.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="14.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="20.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="9.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="9.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="13" style="2" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="12" style="2" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="10.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="12" style="2" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="26" style="2" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="23.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="21.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="18.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="20.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="17.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="24.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="18.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="25.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="22.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="12.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="19.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="18.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="23" style="2" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="12.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="9.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="17.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="12.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="11.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="14.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="20.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="9.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="9.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="13" style="2" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="12" style="2" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="10.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="12" style="2" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="26" style="2" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="23.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="21.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="18.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="20.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="17.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="84" max="84" width="24.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="85" max="85" width="18.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="86" max="86" width="25.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="87" max="87" width="22.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="88" max="88" width="11.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="89" max="89" width="17.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="90" max="90" width="18.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="91" max="91" width="23" style="2" bestFit="1" customWidth="1"/>
+    <col min="92" max="92" width="12.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="93" max="93" width="9.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="94" max="94" width="15.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="95" max="16384" width="16.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:95" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="7"/>
-      <c r="B1" s="8">
+    <row r="1" spans="1:94" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6"/>
+      <c r="B1" s="7">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="E1" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="F1" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="N1" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="O1" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="P1" s="7">
+        <v>7</v>
+      </c>
+      <c r="Q1" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="R1" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="S1" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="T1" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="U1" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="V1" t="s">
+        <v>96</v>
+      </c>
+      <c r="W1" t="s">
+        <v>139</v>
+      </c>
+      <c r="X1" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y1" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="Z1" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="AA1" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB1" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="AC1" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="AD1" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="AE1" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="AF1" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="AG1" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="AH1" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="AI1" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="AJ1" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="AK1" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="AL1" s="7"/>
+      <c r="AM1" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="AN1" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="AO1" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="AP1" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="F1" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="H1" s="9" t="s">
+      <c r="AQ1" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="AR1" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="AS1" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="AT1" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="AU1" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="AV1" s="7">
+        <v>7</v>
+      </c>
+      <c r="AW1" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="AX1" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="AY1" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="AZ1" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="BA1" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="BB1" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="BC1" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>142</v>
+      </c>
+      <c r="BE1" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="BF1" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="BG1" s="7">
+        <v>18745</v>
+      </c>
+      <c r="BH1" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="BI1" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="BJ1" s="7"/>
+      <c r="BK1" s="7">
+        <v>5417</v>
+      </c>
+      <c r="BL1" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="BM1" s="7"/>
+      <c r="BN1" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="BO1" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="BP1" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="BQ1" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="BR1" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="BS1" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="BT1" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="BU1" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="BV1" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="BW1" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="BX1" s="7">
+        <v>7</v>
+      </c>
+      <c r="BY1" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="BZ1" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="CA1" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="CB1" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="CC1" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="CD1" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="CE1" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>142</v>
+      </c>
+      <c r="CG1" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="CH1" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="CI1" s="7">
+        <v>18746</v>
+      </c>
+      <c r="CJ1" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="CK1" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="CL1" s="7"/>
+      <c r="CM1" s="7">
+        <v>5418</v>
+      </c>
+      <c r="CN1" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="CO1" s="7"/>
+      <c r="CP1" s="7" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="2" spans="1:94" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="K2" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="L2" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="M2" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="N2" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="O2" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="P2" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q2" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="R2" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="S2" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="T2" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="U2" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="V2" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="W2" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="I1" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="J1" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="K1" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="L1" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="M1" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="N1" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="O1" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="P1" s="8">
-        <v>7</v>
-      </c>
-      <c r="Q1" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="R1" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="S1" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="T1" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="U1" s="8" t="s">
+      <c r="X2" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="Y2" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z2" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="AA2" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB2" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="AC2" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="AD2" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE2" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF2" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="AG2" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="AH2" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="AI2" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="AJ2" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="AK2" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="AL2" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="AM2" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="AN2" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="AO2" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="AP2" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="AQ2" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="AR2" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="AS2" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="AT2" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="AU2" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="AV2" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="AW2" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="AX2" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="AY2" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="AZ2" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="BA2" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="BB2" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="BC2" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="BD2" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="BE2" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="BF2" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="BG2" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="BH2" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="BI2" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="BJ2" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="BK2" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="BL2" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="BM2" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="BN2" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="BO2" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="BP2" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="BQ2" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="BR2" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="BS2" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="BT2" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="BU2" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="BV2" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="BW2" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="BX2" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="BY2" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="BZ2" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="CA2" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="CB2" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="CC2" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="CD2" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="CE2" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="CF2" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="CG2" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="CH2" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="CI2" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="CJ2" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="CK2" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="CL2" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="CM2" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="CN2" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="CO2" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="CP2" s="14" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:94" x14ac:dyDescent="0.25">
+      <c r="B4" s="2" t="s">
         <v>98</v>
-      </c>
-      <c r="V1" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="W1" t="s">
-        <v>146</v>
-      </c>
-      <c r="X1" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="Y1" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="Z1" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="AA1" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="AB1" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="AC1" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="AD1" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="AE1" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="AF1" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="AG1" s="8">
-        <v>7</v>
-      </c>
-      <c r="AH1" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="AI1" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="AJ1" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="AK1" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="AL1" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="AM1" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="AN1" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="AO1" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="AP1" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="AQ1" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="AR1" s="8">
-        <v>18745</v>
-      </c>
-      <c r="AS1" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="AT1" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="AU1" s="8"/>
-      <c r="AV1" s="8">
-        <v>5417</v>
-      </c>
-      <c r="AW1" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="AX1" s="8"/>
-      <c r="AY1" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="AZ1" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="BA1" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="BB1" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="BC1" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="BD1" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="BE1" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="BF1" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="BG1" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="BH1" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="BI1" s="8">
-        <v>7</v>
-      </c>
-      <c r="BJ1" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="BK1" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="BL1" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="BM1" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="BN1" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="BO1" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="BP1" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="BQ1" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="BR1" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="BS1" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="BT1" s="8">
-        <v>18746</v>
-      </c>
-      <c r="BU1" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="BV1" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="BW1" s="8"/>
-      <c r="BX1" s="8">
-        <v>5418</v>
-      </c>
-      <c r="BY1" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="BZ1" s="8"/>
-      <c r="CA1" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="CB1" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="CC1" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="CD1" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="CE1" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="CF1" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="CG1" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="CH1" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="CI1" s="11">
-        <v>43831</v>
-      </c>
-      <c r="CJ1" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="CK1" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="CL1" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="CM1" s="12" t="s">
-        <v>141</v>
-      </c>
-      <c r="CN1" s="12" t="s">
-        <v>141</v>
-      </c>
-      <c r="CO1" s="13" t="s">
-        <v>142</v>
-      </c>
-      <c r="CP1" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="CQ1" s="8" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="2" spans="1:95" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="I2" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="J2" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="K2" s="14" t="s">
-        <v>133</v>
-      </c>
-      <c r="L2" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="M2" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="N2" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="O2" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="P2" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q2" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="R2" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="S2" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="T2" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="U2" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="V2" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="W2" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="X2" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="Y2" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="Z2" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA2" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="AB2" s="15" t="s">
-        <v>128</v>
-      </c>
-      <c r="AC2" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="AD2" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="AE2" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="AF2" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="AG2" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="AH2" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="AI2" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="AJ2" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="AK2" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="AL2" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="AM2" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="AN2" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="AO2" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="AP2" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="AQ2" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="AR2" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="AS2" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="AT2" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="AU2" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="AV2" s="15" t="s">
-        <v>127</v>
-      </c>
-      <c r="AW2" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="AX2" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="AY2" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="AZ2" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="BA2" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="BB2" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="BC2" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="BD2" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="BE2" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="BF2" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="BG2" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="BH2" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="BI2" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="BJ2" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="BK2" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="BL2" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="BM2" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="BN2" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="BO2" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="BP2" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="BQ2" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="BR2" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="BS2" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="BT2" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="BU2" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="BV2" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="BW2" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="BX2" s="16" t="s">
-        <v>126</v>
-      </c>
-      <c r="BY2" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="BZ2" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="CA2" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="CB2" s="14" t="s">
-        <v>143</v>
-      </c>
-      <c r="CC2" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="CD2" s="14" t="s">
-        <v>139</v>
-      </c>
-      <c r="CE2" s="14" t="s">
-        <v>131</v>
-      </c>
-      <c r="CF2" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="CG2" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="CH2" s="14" t="s">
-        <v>135</v>
-      </c>
-      <c r="CI2" s="17" t="s">
-        <v>136</v>
-      </c>
-      <c r="CJ2" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="CK2" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="CL2" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="CM2" s="14" t="s">
-        <v>136</v>
-      </c>
-      <c r="CN2" s="18" t="s">
-        <v>140</v>
-      </c>
-      <c r="CO2" s="18" t="s">
-        <v>139</v>
-      </c>
-      <c r="CP2" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="CQ2" s="14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:95" x14ac:dyDescent="0.25">
-      <c r="B4" s="2" t="s">
-        <v>101</v>
       </c>
       <c r="L4" s="1"/>
     </row>
-    <row r="5" spans="1:95" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:94" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
-    <row r="6" spans="1:95" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:94" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
     </row>
-    <row r="7" spans="1:95" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:94" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
     </row>
-    <row r="8" spans="1:95" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:94" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="jKMmSBv12aRWFcFL2fjXtZ4vzt4AkwV0W/SPWoXAJtXC2jzC+P5Fdkngx11hGqctwi61gCSYT+rAjIRQGBsgAA==" saltValue="GHOAb7boiBXR2lgzLQRI0g==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatColumns="0" formatRows="0" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
-  <autoFilter ref="A2:CQ2" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:CL376">
+  <sheetProtection algorithmName="SHA-512" hashValue="KcSU4hspeK+/6PhDslRzTV/jc+cYEZvWRpgPEgUK80yFN5YM2DoCz/rTKtZCkeLU43RKQSzUZdnywKsXOuuYRw==" saltValue="1bVHAM0UJKYMIe3iECspPQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" autoFilter="0"/>
+  <autoFilter ref="A2:CP2" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:CP376">
       <sortCondition ref="A1:A376"/>
     </sortState>
   </autoFilter>

--- a/Common/Style/Resource/Template/Import_Schueler.xlsx
+++ b/Common/Style/Resource/Template/Import_Schueler.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20412"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kmiezik\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rackel\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCFB1114-BD51-4BCE-B57F-9E98BAD67975}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47E60077-092C-4086-A77A-1C8782153731}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Schüler" sheetId="1" r:id="rId1"/>
@@ -639,9 +639,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 – 2022-Design">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 – 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -679,7 +679,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 – 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -785,7 +785,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 – 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -927,7 +927,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -941,7 +941,7 @@
       <pane xSplit="5" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M20" sqref="M20"/>
+      <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1612,12 +1612,8 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="KcSU4hspeK+/6PhDslRzTV/jc+cYEZvWRpgPEgUK80yFN5YM2DoCz/rTKtZCkeLU43RKQSzUZdnywKsXOuuYRw==" saltValue="1bVHAM0UJKYMIe3iECspPQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" autoFilter="0"/>
-  <autoFilter ref="A2:CP2" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:CP376">
-      <sortCondition ref="A1:A376"/>
-    </sortState>
-  </autoFilter>
+  <sheetProtection algorithmName="SHA-512" hashValue="zQtwzR231FgHfViik8z3XA1Cnsy5ILke1R4ga2evVoPHg+SgnT1j2G3W/n8bVwfI4TdiJdBsn7b3TVO9tJdw8w==" saltValue="vfG4llJKMyM6oMVfXrShzg==" spinCount="100000" sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" autoFilter="0"/>
+  <autoFilter ref="A2:CP2" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
